--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/01.NhanBH/NBH210226_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/01.NhanBH/NBH210226_AnhTuanBG.xlsx
@@ -500,6 +500,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,45 +580,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,7 +937,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -954,92 +954,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -1196,26 +1196,26 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1251,16 +1251,16 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="31" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -1288,13 +1288,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="B8:F8"/>
@@ -1303,6 +1296,13 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
